--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -593,10 +605,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -640,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -686,28 +698,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -911,10 +923,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -958,28 +970,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1004,28 +1016,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1299,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1334,28 +1346,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1392,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1547,10 +1559,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1594,28 +1606,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1640,28 +1652,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1778,10 +1790,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1825,28 +1837,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1871,28 +1883,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2183,10 +2195,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2230,28 +2242,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2276,28 +2288,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2414,10 +2426,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2461,28 +2473,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2507,28 +2519,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2790,10 +2802,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2837,28 +2849,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2883,28 +2895,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3021,10 +3033,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3068,28 +3080,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3114,28 +3126,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3194,10 +3206,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3241,28 +3253,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3287,28 +3299,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3599,10 +3611,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3646,28 +3658,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3692,28 +3704,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3888,10 +3900,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="J130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3935,28 +3947,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3981,28 +3993,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4148,10 +4160,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="J139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4195,28 +4207,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4241,28 +4253,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4536,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4571,28 +4583,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4629,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4871,10 +4883,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
+      <c r="J164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4918,28 +4930,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4964,28 +4976,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5131,10 +5143,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
+      <c r="J173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5178,28 +5190,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5224,28 +5236,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
